--- a/biology/Botanique/Skunk_(marijuana)/Skunk_(marijuana).xlsx
+++ b/biology/Botanique/Skunk_(marijuana)/Skunk_(marijuana).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La skunk est une variété de cannabis avec un fort taux de tétrahydrocannabinol (THC) développée durant les années 1970 aux États-Unis. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom qui désigne en français la « mouffette » (ou « sconce ») ne lui a pas été attribué à cause de sa forte odeur comme on pourrait le croire, mais est en fait le sobriquet que l'on donne aux cultivateurs[réf. nécessaire]. 
-Le croisement original nommé Skunk #1 est issu à 75 % de Sativa (de la Colombian Gold à 50 % et de l'Acapulco Gold à 25 %[1]) et 25 % d'Indica (d'Afghanistan). Cet hybride a été stabilisé si bien que ses propriétés se conservent au fil des générations. La Skunk #1 remporte la Cannabis cup dans la catégorie Mostly Sativa et Mostly Indica en 1989[2]. Elle est à l'origine d'un grand nombre de croisements et de sous-variétés (orange bud) dont certains ont remporté des Cannabis Cup.
+Le croisement original nommé Skunk #1 est issu à 75 % de Sativa (de la Colombian Gold à 50 % et de l'Acapulco Gold à 25 %) et 25 % d'Indica (d'Afghanistan). Cet hybride a été stabilisé si bien que ses propriétés se conservent au fil des générations. La Skunk #1 remporte la Cannabis cup dans la catégorie Mostly Sativa et Mostly Indica en 1989. Elle est à l'origine d'un grand nombre de croisements et de sous-variétés (orange bud) dont certains ont remporté des Cannabis Cup.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Super Skunk</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La super skunk est une variété réputée de cannabis issue du croisement de plusieurs skunk de qualité et de plants afghans. Le croisement est issu à 75 % d'Indica, et 25 % de Sativa. Son taux de THC est assez élevé. Elle remporte la Cannabis Cup de 1990 dans la catégorie Mostly Indica[réf. nécessaire].
 </t>
